--- a/src/api/data/认证证书.xlsx
+++ b/src/api/data/认证证书.xlsx
@@ -1,75 +1,77 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\hongsheng3\src\api\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId1"/>
-    <sheet name="繁体" sheetId="2" r:id="rId2"/>
-    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="中文" sheetId="1" r:id="rId4"/>
+    <sheet name="繁体" sheetId="2" r:id="rId5"/>
+    <sheet name="英文" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ISO9001 认证（时讯工厂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://www.hungshang.com.hk/c1.pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c1.pdf</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color indexed="13"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +81,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -137,121 +145,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffbdc0bf"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -377,7 +329,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -386,7 +338,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -395,7 +347,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -469,7 +421,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -477,7 +429,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -496,7 +448,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -526,7 +478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -552,7 +504,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -578,7 +530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -604,7 +556,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +582,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +634,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +660,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +686,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,15 +699,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -770,7 +716,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -778,7 +724,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -797,7 +743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -823,7 +769,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -849,7 +795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -875,7 +821,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1044,15 +990,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1066,7 +1006,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1085,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1115,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1141,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1167,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1193,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,139 +1276,130 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="253" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="198.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1476,22 +1407,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1499,22 +1527,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="7" customWidth="1"/>
+    <col min="3" max="256" width="16.3516" style="7" customWidth="1"/>
   </cols>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetData>
+    <row r="1" ht="14.55" customHeight="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="198.6" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" ht="14.4" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" ht="14.4" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" ht="14.4" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" ht="14.4" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" ht="14.4" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" ht="14.4" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" ht="14.4" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+    </row>
+    <row r="11" ht="12" customHeight="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" ht="12" customHeight="1">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" ht="12" customHeight="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" ht="12" customHeight="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" ht="12" customHeight="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" ht="12" customHeight="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" ht="12" customHeight="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" ht="12" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" ht="12" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" ht="12" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" ht="12" customHeight="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/src/api/data/认证证书.xlsx
+++ b/src/api/data/认证证书.xlsx
@@ -9,12 +9,13 @@
     <sheet name="中文" sheetId="1" r:id="rId4"/>
     <sheet name="繁体" sheetId="2" r:id="rId5"/>
     <sheet name="英文" sheetId="3" r:id="rId6"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>title</t>
   </si>
@@ -29,11 +30,111 @@
       <rPr>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="13"/>
+        <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
       <t>http://www.hungshang.com.hk/c1.pdf</t>
     </r>
+  </si>
+  <si>
+    <t>TS16949 （时讯工厂）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c2.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO14001认证（时讯工厂）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c3.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>UL E144615 （铅丝）</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c4.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Bank of China (Environmental Leadership Award) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c5.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>Avery Dennison (Excellent Distributor of the Year)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://www.hungshang.com.hk/c6.pdf</t>
+    </r>
+  </si>
+  <si>
+    <t>ISO9001認證（時訊工廠）</t>
+  </si>
+  <si>
+    <t>TS16949 （時訊工廠）</t>
+  </si>
+  <si>
+    <t>ISO14001認證（時訊工廠）</t>
+  </si>
+  <si>
+    <t>UL E144615 （鉛絲）</t>
+  </si>
+  <si>
+    <t>Avery Dennison (Excellent Distributor of the Year) </t>
+  </si>
+  <si>
+    <t>ISO9001 Certification (Season Plant)</t>
+  </si>
+  <si>
+    <t>TS16949 (Season Plant) </t>
+  </si>
+  <si>
+    <t>ISO14001 Certification (Season Plant) </t>
+  </si>
+  <si>
+    <t>UL E144615 (Lead Wire) </t>
+  </si>
+  <si>
+    <t>Bank of China (Environmental Leadership Award)</t>
   </si>
 </sst>
 </file>
@@ -67,7 +168,7 @@
     <font>
       <u val="single"/>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -91,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -118,6 +219,37 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -127,6 +259,31 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -144,13 +301,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -160,16 +348,73 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -196,10 +441,61 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>627023</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>62789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14343024" cy="5676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1291,7 +1587,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1299,104 +1595,195 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" ht="14.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" ht="81.75" customHeight="1">
+      <c r="A2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" ht="81" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" ht="39.95" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" ht="39.95" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" ht="39.95" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" ht="39.95" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" ht="39.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" ht="39.95" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" ht="39.95" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" ht="39.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" ht="39.95" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" ht="39.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" ht="39.95" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" ht="39.95" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" ht="39.95" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" ht="39.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" ht="39.95" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" ht="39.95" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" ht="39.95" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1411,112 +1798,203 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.8516" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.8516" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10" style="16" customWidth="1"/>
+    <col min="5" max="5" width="10" style="16" customWidth="1"/>
+    <col min="6" max="256" width="10" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" ht="114" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="39.95" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="39.95" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="39.95" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="39.95" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="39.95" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="39.95" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="39.95" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="39.95" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="39.95" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="39.95" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="39.95" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" ht="39.95" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="39.95" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" ht="39.95" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="39.95" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="39.95" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" ht="39.95" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="39.95" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="39.95" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1531,112 +2009,203 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="7" customWidth="1"/>
-    <col min="3" max="256" width="16.3516" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="26" customWidth="1"/>
+    <col min="2" max="2" width="38.0391" style="26" customWidth="1"/>
+    <col min="3" max="3" width="10" style="26" customWidth="1"/>
+    <col min="4" max="4" width="10" style="26" customWidth="1"/>
+    <col min="5" max="5" width="10" style="26" customWidth="1"/>
+    <col min="6" max="256" width="10" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" ht="13.15" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="198.6" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" ht="102" customHeight="1">
+      <c r="A2" t="s" s="6">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" ht="14.4" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-    </row>
-    <row r="6" ht="14.4" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-    </row>
-    <row r="7" ht="14.4" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" ht="14.4" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-    </row>
-    <row r="9" ht="14.4" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" ht="14.4" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-    </row>
-    <row r="11" ht="12" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-    </row>
-    <row r="12" ht="12" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" ht="12" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-    </row>
-    <row r="14" ht="12" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-    </row>
-    <row r="15" ht="12" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-    </row>
-    <row r="16" ht="12" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" ht="12" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" ht="12" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" ht="12" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" ht="12" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" ht="12" customHeight="1">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" ht="13.15" customHeight="1">
+      <c r="A3" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" ht="13.15" customHeight="1">
+      <c r="A4" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" ht="13.15" customHeight="1">
+      <c r="A5" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" ht="13.15" customHeight="1">
+      <c r="A6" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" ht="13.15" customHeight="1">
+      <c r="A7" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" ht="13.15" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" ht="13.15" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" ht="13.15" customHeight="1">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" ht="13.15" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" ht="13.15" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" ht="13.15" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" ht="13.15" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" ht="13.15" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" ht="13.15" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" ht="13.15" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" ht="13.15" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" ht="13.15" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" ht="13.15" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" ht="13.15" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -1644,4 +2213,23 @@
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="256" width="10" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/api/data/认证证书.xlsx
+++ b/src/api/data/认证证书.xlsx
@@ -1,116 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucky\Desktop\网站翻译\资料修改\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="15960" windowHeight="18090"/>
   </bookViews>
   <sheets>
-    <sheet name="中文" sheetId="1" r:id="rId4"/>
-    <sheet name="繁体" sheetId="2" r:id="rId5"/>
-    <sheet name="英文" sheetId="3" r:id="rId6"/>
-    <sheet name="用于此页面" sheetId="4" r:id="rId7"/>
+    <sheet name="中文" sheetId="1" r:id="rId1"/>
+    <sheet name="繁体" sheetId="2" r:id="rId2"/>
+    <sheet name="英文" sheetId="3" r:id="rId3"/>
+    <sheet name="用于此页面" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ISO9001 认证（时讯工厂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c1.pdf</t>
-    </r>
+    <t>http://www.hungshang.com.hk/c1.pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO9001認證（時訊工廠）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ISO9001 Certification (Season Plant)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TS16949 （时讯工厂）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c2.pdf</t>
-    </r>
+    <t>TS16949 （時訊工廠）</t>
+  </si>
+  <si>
+    <t>TS16949 (Season Plant) </t>
   </si>
   <si>
     <t>ISO14001认证（时讯工厂）</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c3.pdf</t>
-    </r>
-  </si>
-  <si>
     <t>UL E144615 （铅丝）</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c4.pdf</t>
-    </r>
   </si>
   <si>
     <t>Bank of China (Environmental Leadership Award) </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c5.pdf</t>
-    </r>
-  </si>
-  <si>
     <t>Avery Dennison (Excellent Distributor of the Year)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>http://www.hungshang.com.hk/c6.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>ISO9001認證（時訊工廠）</t>
-  </si>
-  <si>
-    <t>TS16949 （時訊工廠）</t>
   </si>
   <si>
     <t>ISO14001認證（時訊工廠）</t>
@@ -120,12 +76,6 @@
   </si>
   <si>
     <t>Avery Dennison (Excellent Distributor of the Year) </t>
-  </si>
-  <si>
-    <t>ISO9001 Certification (Season Plant)</t>
-  </si>
-  <si>
-    <t>TS16949 (Season Plant) </t>
   </si>
   <si>
     <t>ISO14001 Certification (Season Plant) </t>
@@ -140,39 +90,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
-      <color indexed="14"/>
+      <color theme="10"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,14 +130,8 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -219,37 +158,6 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -259,31 +167,6 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -301,156 +184,123 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -458,22 +308,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>627023</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62789</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>207924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>8815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
-          <a:extLst/>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -481,16 +329,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14343024" cy="5676190"/>
+          <a:ext cx="13009524" cy="5676190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -499,7 +342,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -625,7 +468,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -634,7 +477,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -643,7 +486,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -717,7 +560,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -725,7 +568,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -744,7 +587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -774,7 +617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,7 +643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -826,7 +669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -852,7 +695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -878,7 +721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -904,7 +747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -930,7 +773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -956,7 +799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -995,9 +838,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1012,7 +861,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -1020,7 +869,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1039,7 +888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1065,7 +914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,7 +940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1117,7 +966,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1143,7 +992,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1169,7 +1018,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1195,7 +1044,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1221,7 +1070,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1247,7 +1096,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1122,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1286,9 +1135,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1302,7 +1157,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1321,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1351,7 +1206,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1377,7 +1232,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1403,7 +1258,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1429,7 +1284,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1455,7 +1310,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1481,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1507,7 +1362,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1533,7 +1388,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1559,7 +1414,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1572,221 +1427,150 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:IS22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="253" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" ht="81.75" customHeight="1">
-      <c r="A2" t="s" s="6">
+    </row>
+    <row r="2" spans="1:2" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" ht="81" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-    </row>
-    <row r="4" ht="39.95" customHeight="1">
-      <c r="A4" t="s" s="11">
+    </row>
+    <row r="3" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" ht="39.95" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s" s="11">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" ht="39.95" customHeight="1">
-      <c r="A6" t="s" s="11">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" ht="39.95" customHeight="1">
-      <c r="A7" t="s" s="11">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" ht="39.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" ht="39.95" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" ht="39.95" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" ht="39.95" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" ht="39.95" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" ht="39.95" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" ht="39.95" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" ht="39.95" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" ht="39.95" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" ht="39.95" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" ht="39.95" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" ht="39.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" ht="39.95" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15"/>
-    </row>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -1794,210 +1578,131 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8516" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.8516" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10" style="16" customWidth="1"/>
-    <col min="4" max="4" width="10" style="16" customWidth="1"/>
-    <col min="5" max="5" width="10" style="16" customWidth="1"/>
-    <col min="6" max="256" width="10" style="16" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" ht="114" customHeight="1">
-      <c r="A2" t="s" s="6">
+    </row>
+    <row r="2" spans="1:2" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s" s="7">
-        <v>3</v>
-      </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="39.95" customHeight="1">
-      <c r="A3" t="s" s="11">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" ht="39.95" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="39.95" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="39.95" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="39.95" customHeight="1">
-      <c r="A7" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="39.95" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="39.95" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="39.95" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="39.95" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" ht="39.95" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" ht="39.95" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" ht="39.95" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" ht="39.95" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" ht="39.95" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" ht="39.95" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" ht="39.95" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" ht="39.95" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="39.95" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" ht="39.95" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2005,210 +1710,131 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="38.0391" style="26" customWidth="1"/>
-    <col min="3" max="3" width="10" style="26" customWidth="1"/>
-    <col min="4" max="4" width="10" style="26" customWidth="1"/>
-    <col min="5" max="5" width="10" style="26" customWidth="1"/>
-    <col min="6" max="256" width="10" style="26" customWidth="1"/>
+    <col min="1" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.15" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" ht="102" customHeight="1">
-      <c r="A2" t="s" s="6">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s" s="7">
+    </row>
+    <row r="2" spans="1:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" ht="13.15" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="11">
-        <v>5</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" ht="13.15" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>7</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" ht="13.15" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" ht="13.15" customHeight="1">
-      <c r="A6" t="s" s="11">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>11</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" ht="13.15" customHeight="1">
-      <c r="A7" t="s" s="11">
+    </row>
+    <row r="3" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="11">
-        <v>13</v>
-      </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" ht="13.15" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-    </row>
-    <row r="9" ht="13.15" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" ht="13.15" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" ht="13.15" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" ht="13.15" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" ht="13.15" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" ht="13.15" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" ht="13.15" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" ht="13.15" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" ht="13.15" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" ht="13.15" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" ht="13.15" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-    </row>
-    <row r="20" ht="13.15" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" ht="13.15" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="25"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="B3" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="B4" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="B5" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="B6" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="B7" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2216,20 +1842,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="256" width="10" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>